--- a/hourly datasets/cap_gen_year3final.xlsx
+++ b/hourly datasets/cap_gen_year3final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>117386701.9006111</v>
+        <v>0.09912404012357631</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003802182074097652</v>
+        <v>0.001969907350911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003089426407634618</v>
+        <v>0.0006792740834497284</v>
       </c>
       <c r="D3" t="n">
-        <v>1.592334080911037</v>
+        <v>3.989874991484508</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1220523852710238</v>
+        <v>0.08790630064225226</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002140941251539304</v>
+        <v>0.000638546645195661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01005429647954761</v>
+        <v>0.003301268056626339</v>
       </c>
       <c r="H3" t="n">
-        <v>117386701.9044133</v>
+        <v>0.1010939474744873</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005581820459128132</v>
+        <v>0.004763016599688532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003837116142490758</v>
+        <v>0.001087764048200155</v>
       </c>
       <c r="D4" t="n">
-        <v>1.401200543538416</v>
+        <v>4.155518924700853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07995967033867957</v>
+        <v>0.005041401044172722</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001891671523421556</v>
+        <v>0.002631027440920148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.013349450580965</v>
+        <v>0.006895005758456918</v>
       </c>
       <c r="H4" t="n">
-        <v>117386701.9061929</v>
+        <v>0.1038870567232648</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004526996288846147</v>
+        <v>0.007961018694175597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00357944096845891</v>
+        <v>0.001696903254367539</v>
       </c>
       <c r="D5" t="n">
-        <v>1.402189594424813</v>
+        <v>6.247422250883083</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1522811430388059</v>
+        <v>0.1893882024200223</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002045488126298</v>
+        <v>0.004635133330843471</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01105426591095535</v>
+        <v>0.01128690405750772</v>
       </c>
       <c r="H5" t="n">
-        <v>117386701.9051381</v>
+        <v>0.1070850588177519</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003706346979825795</v>
+        <v>0.007713261819120072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003446093151254285</v>
+        <v>0.005582290229956171</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8236784306148942</v>
+        <v>3.413103656481359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.10401485450842</v>
+        <v>0.1275911100851306</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002669794967432578</v>
+        <v>-0.003227886564427699</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009788960169612641</v>
+        <v>0.01865441020266784</v>
       </c>
       <c r="H6" t="n">
-        <v>117386701.9043175</v>
+        <v>0.1068373019426964</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-117386701.9006111</v>
+        <v>0.01248176075846321</v>
       </c>
       <c r="C7" t="n">
-        <v>586376582.7691898</v>
+        <v>0.004050449129408803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7510284077224715</v>
+        <v>4.277125696196287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1131840697081755</v>
+        <v>0.02440828912289726</v>
       </c>
       <c r="F7" t="n">
-        <v>-1266673195.046222</v>
+        <v>0.004543002325326651</v>
       </c>
       <c r="G7" t="n">
-        <v>1031899791.244645</v>
+        <v>0.02042051919159977</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1116058008820395</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002994206696118219</v>
+        <v>0.007873373587688241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001910307529739334</v>
+        <v>0.001960956588305206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.583954680653157</v>
+        <v>5.3650575923961</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08354034307805579</v>
+        <v>0.007060969426136016</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.003031966809330717</v>
+        <v>0.004029952485432458</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003225992665862174</v>
+        <v>0.01171679468994402</v>
       </c>
       <c r="H8" t="n">
-        <v>117386701.9009105</v>
+        <v>0.1069974137112646</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01193997892520191</v>
+        <v>0.06126548629181352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003674431186862874</v>
+        <v>0.005974746490127017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6992257180570803</v>
+        <v>6.254955807264902</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1305622109405851</v>
+        <v>0.0002807193490298925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005197840579616209</v>
+        <v>0.04955513648773151</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01812806059609909</v>
+        <v>0.07297583609589553</v>
       </c>
       <c r="H9" t="n">
-        <v>117386701.9125511</v>
+        <v>0.1603895264153898</v>
       </c>
     </row>
     <row r="10">
@@ -696,25 +696,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1032682517164784</v>
+        <v>-0.09912404012357631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002398576603654082</v>
+        <v>0.0005522708947199429</v>
       </c>
       <c r="D10" t="n">
-        <v>-92.04876586638343</v>
+        <v>-215.9199853302586</v>
       </c>
       <c r="E10" t="n">
-        <v>5.394659500913278e-07</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.107969903792672</v>
+        <v>-0.1002064776500371</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0985665996402847</v>
+        <v>-0.09804160259711552</v>
       </c>
       <c r="H10" t="n">
-        <v>117386701.7973429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04463702899844158</v>
+        <v>-0.04429857794053839</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00253310380663956</v>
+        <v>0.0005979279000378096</v>
       </c>
       <c r="D11" t="n">
-        <v>-33.80882484945547</v>
+        <v>-86.6089600510645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01426507576113785</v>
+        <v>2.558580134952391e-261</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0496023825525479</v>
+        <v>-0.04547050198677859</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03967167544433529</v>
+        <v>-0.04312665389429819</v>
       </c>
       <c r="H11" t="n">
-        <v>117386701.8559741</v>
+        <v>0.05482546218303792</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03856268645084135</v>
+        <v>-0.0382895251006394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002542477863035443</v>
+        <v>0.0005965268347801323</v>
       </c>
       <c r="D12" t="n">
-        <v>-28.57356419015106</v>
+        <v>-73.73003104183842</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003028451233686053</v>
+        <v>2.045521105960129e-206</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04354645284256835</v>
+        <v>-0.03945870311004777</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0335789200591144</v>
+        <v>-0.03712034709123102</v>
       </c>
       <c r="H12" t="n">
-        <v>117386701.8620484</v>
+        <v>0.06083451502293691</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03455350416565156</v>
+        <v>-0.03667023456129203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002536806467656195</v>
+        <v>0.0005950305101288869</v>
       </c>
       <c r="D13" t="n">
-        <v>-25.6488794541334</v>
+        <v>-69.26452122847117</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01661111020590351</v>
+        <v>2.047807876872883e-172</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0395261532923491</v>
+        <v>-0.03783647988304711</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.029580855038954</v>
+        <v>-0.03550398923953695</v>
       </c>
       <c r="H13" t="n">
-        <v>117386701.8660576</v>
+        <v>0.06245380556228428</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02892051783747242</v>
+        <v>-0.03046362672923095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002511510767420658</v>
+        <v>0.0005919712418413596</v>
       </c>
       <c r="D14" t="n">
-        <v>-20.99200146811278</v>
+        <v>-55.50374299386527</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01479041475501299</v>
+        <v>4.992734507483147e-38</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03384355269029225</v>
+        <v>-0.03162387580609818</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02399748298465262</v>
+        <v>-0.02930337765236372</v>
       </c>
       <c r="H14" t="n">
-        <v>117386701.8716906</v>
+        <v>0.06866041339434537</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02589504175170021</v>
+        <v>-0.02764508677365244</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002502724456230659</v>
+        <v>0.0005762300664488778</v>
       </c>
       <c r="D15" t="n">
-        <v>-19.18657247411453</v>
+        <v>-52.69839258492829</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01967527628518754</v>
+        <v>1.25033539213733e-27</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03080087884116929</v>
+        <v>-0.02877448362386029</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02098920466223114</v>
+        <v>-0.02651568992344459</v>
       </c>
       <c r="H15" t="n">
-        <v>117386701.8747161</v>
+        <v>0.07147895334992388</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02106980762055927</v>
+        <v>-0.02265940967752368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002488337059064496</v>
+        <v>0.0005616018022999292</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.48421690534543</v>
+        <v>-44.21827596319378</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01083269013979152</v>
+        <v>2.074978406278525e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0259474887394053</v>
+        <v>-0.02376013567352311</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01619212650171322</v>
+        <v>-0.02155868368152426</v>
       </c>
       <c r="H16" t="n">
-        <v>117386701.8795413</v>
+        <v>0.07646463044605263</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01820015099405804</v>
+        <v>-0.01835416086881763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002495465679919446</v>
+        <v>0.0005650675835742472</v>
       </c>
       <c r="D17" t="n">
-        <v>-13.36147432582375</v>
+        <v>-38.47043005310683</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04824459332270266</v>
+        <v>0.04287914853338819</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02309176510107954</v>
+        <v>-0.01946167965049072</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01330853688703654</v>
+        <v>-0.01724664208714455</v>
       </c>
       <c r="H17" t="n">
-        <v>117386701.882411</v>
+        <v>0.08076987925475868</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01577837090968266</v>
+        <v>-0.01853491288746079</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002508317945094767</v>
+        <v>0.0005715171371309402</v>
       </c>
       <c r="D18" t="n">
-        <v>-12.29129168803621</v>
+        <v>-37.51008626564604</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03650500049695474</v>
+        <v>2.846794667548497e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02069518341204834</v>
+        <v>-0.01965507259681564</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.010861558407317</v>
+        <v>-0.01741475317810594</v>
       </c>
       <c r="H18" t="n">
-        <v>117386701.8848327</v>
+        <v>0.08058912723611553</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01321013654752733</v>
+        <v>-0.01617550511239547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002592251557447752</v>
+        <v>0.0006019181169608974</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.27873145408842</v>
+        <v>-32.42528235001339</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0683945804467527</v>
+        <v>4.872812294569726e-10</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01829155252176722</v>
+        <v>-0.01735525066932838</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.008128720573287439</v>
+        <v>-0.01499575955546255</v>
       </c>
       <c r="H19" t="n">
-        <v>117386701.887401</v>
+        <v>0.08294853501118085</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.008171148377881332</v>
+        <v>-0.01234987996562419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00294147209743656</v>
+        <v>0.0006130558544811643</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.192293343732753</v>
+        <v>-25.94470497262839</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05564314634877291</v>
+        <v>0.05275932284806881</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0139374869130605</v>
+        <v>-0.01355145546544801</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002404809842702162</v>
+        <v>-0.01114830446580037</v>
       </c>
       <c r="H20" t="n">
-        <v>117386701.89244</v>
+        <v>0.08677416015795213</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00714244555898953</v>
+        <v>-0.01174631605031217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00269277394825841</v>
+        <v>0.0006213063200913889</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.588354794844175</v>
+        <v>-21.25124396978418</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0699542902747799</v>
+        <v>0.01954117352813525</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01242089131951695</v>
+        <v>-0.01296406212643655</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001863999798462108</v>
+        <v>-0.0105285699741878</v>
       </c>
       <c r="H21" t="n">
-        <v>117386701.8934687</v>
+        <v>0.08737772407326413</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006736017640658635</v>
+        <v>-0.009784054758511131</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002575221997317329</v>
+        <v>0.0005915846990609998</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.857949190147753</v>
+        <v>-17.26145967619875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05901294694242026</v>
+        <v>0.03498361640396983</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01178386975181129</v>
+        <v>-0.0109435465971688</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00168816552950598</v>
+        <v>-0.008624562919853465</v>
       </c>
       <c r="H22" t="n">
-        <v>117386701.8938751</v>
+        <v>0.08933998536506518</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00325329008615986</v>
+        <v>-0.006674684167149318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002516763080183658</v>
+        <v>0.0005895384108173295</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.610431064436736</v>
+        <v>-12.71002665266026</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09494734969786209</v>
+        <v>0.01613324950104657</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008186548221560432</v>
+        <v>-0.007830165407939172</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00167996804924071</v>
+        <v>-0.005519202926359465</v>
       </c>
       <c r="H23" t="n">
-        <v>117386701.8973578</v>
+        <v>0.09244935595642699</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001220195465171395</v>
+        <v>-0.003862601735944289</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002542248792317459</v>
+        <v>0.000578434674261406</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4774246053227664</v>
+        <v>-7.55886471062492</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1371682892030538</v>
+        <v>0.0513026462280677</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006203389001189464</v>
+        <v>-0.004996319809467696</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003762998070846673</v>
+        <v>-0.00272888366242088</v>
       </c>
       <c r="H24" t="n">
-        <v>117386701.8993909</v>
+        <v>0.09526143838763203</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0008671169359086373</v>
+        <v>-0.002986180309636185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002747781230633999</v>
+        <v>0.0005482076431902245</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9219099529650011</v>
+        <v>-6.909494540869561</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1702445972433914</v>
+        <v>0.05400323717021923</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004518997567581431</v>
+        <v>-0.004060654014139587</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006253231439398707</v>
+        <v>-0.001911706605132783</v>
       </c>
       <c r="H25" t="n">
-        <v>117386701.9014782</v>
+        <v>0.09613785981394013</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006031572032304039</v>
+        <v>0.02834203878765998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001379044717766035</v>
+        <v>0.0008328571950808638</v>
       </c>
       <c r="D26" t="n">
-        <v>2.952392574901035</v>
+        <v>23.98614778046045</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1118897256292346</v>
+        <v>5.981163700908449e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00385358858997585</v>
+        <v>0.02670965929688141</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007630445916535109</v>
+        <v>0.02997441827843855</v>
       </c>
       <c r="H26" t="n">
-        <v>117386701.9066427</v>
+        <v>0.1274660789112363</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year3final.xlsx
+++ b/hourly datasets/cap_gen_year3final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09912404012357631</v>
+        <v>0.09968468313855383</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001969907350911</v>
+        <v>0.002266672849087649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006792740834497284</v>
+        <v>0.0006678212274062485</v>
       </c>
       <c r="D3" t="n">
-        <v>3.989874991484508</v>
+        <v>4.358516180855808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08790630064225226</v>
+        <v>0.08787505996454467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000638546645195661</v>
+        <v>0.0009577590058514109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003301268056626339</v>
+        <v>0.003575586692323887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1010939474744873</v>
+        <v>0.1019513559876415</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004763016599688532</v>
+        <v>0.005918083615986167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001087764048200155</v>
+        <v>0.001069067416773459</v>
       </c>
       <c r="D4" t="n">
-        <v>4.155518924700853</v>
+        <v>4.552441161082395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005041401044172722</v>
+        <v>0.02322339407288468</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002631027440920148</v>
+        <v>0.003822739010936688</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006895005758456918</v>
+        <v>0.008013428221035644</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1038870567232648</v>
+        <v>0.10560276675454</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007961018694175597</v>
+        <v>0.01575680496038385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001696903254367539</v>
+        <v>0.001785486786726698</v>
       </c>
       <c r="D5" t="n">
-        <v>6.247422250883083</v>
+        <v>7.199359717823454</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1893882024200223</v>
+        <v>0.1445074481953045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004635133330843471</v>
+        <v>0.01225729824558578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01128690405750772</v>
+        <v>0.01925631167518192</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1070850588177519</v>
+        <v>0.1154414880989377</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007713261819120072</v>
+        <v>0.01050600373230559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005582290229956171</v>
+        <v>0.005847406623343961</v>
       </c>
       <c r="D6" t="n">
-        <v>3.413103656481359</v>
+        <v>2.457624316537419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1275911100851306</v>
+        <v>0.1045879121229161</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003227886564427699</v>
+        <v>-0.0009547649868844703</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01865441020266784</v>
+        <v>0.02196677245149567</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1068373019426964</v>
+        <v>0.1101906868708594</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01248176075846321</v>
+        <v>0.01083818673145435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004050449129408803</v>
+        <v>0.003336628858298767</v>
       </c>
       <c r="D7" t="n">
-        <v>4.277125696196287</v>
+        <v>2.674774816350013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02440828912289726</v>
+        <v>0.01015481683008175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004543002325326651</v>
+        <v>0.004298492849534943</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02042051919159977</v>
+        <v>0.01737788061337375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1116058008820395</v>
+        <v>0.1105228698700082</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007873373587688241</v>
+        <v>0.002636962360704823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001960956588305206</v>
+        <v>0.00265519647915954</v>
       </c>
       <c r="D8" t="n">
-        <v>5.3650575923961</v>
+        <v>3.200751179696749</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007060969426136016</v>
+        <v>0.01894537803163459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004029952485432458</v>
+        <v>-0.002567147116549612</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01171679468994402</v>
+        <v>0.007841071837959257</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1069974137112646</v>
+        <v>0.1023216454992587</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06126548629181352</v>
+        <v>0.05745190914466825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005974746490127017</v>
+        <v>0.006627194371890664</v>
       </c>
       <c r="D9" t="n">
-        <v>6.254955807264902</v>
+        <v>4.499059386672884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002807193490298925</v>
+        <v>0.04777532613162395</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04955513648773151</v>
+        <v>0.04446278184539889</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07297583609589553</v>
+        <v>0.07044103644393759</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1603895264153898</v>
+        <v>0.1571365922832221</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09912404012357631</v>
+        <v>-0.09968468313855383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005522708947199429</v>
+        <v>0.0005460768787854288</v>
       </c>
       <c r="D10" t="n">
-        <v>-215.9199853302586</v>
+        <v>-222.0819873472074</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1002064776500371</v>
+        <v>-0.1007549808289541</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09804160259711552</v>
+        <v>-0.09861438544815361</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04429857794053839</v>
+        <v>-0.04389441206633503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005979279000378096</v>
+        <v>0.0005912567265510271</v>
       </c>
       <c r="D11" t="n">
-        <v>-86.6089600510645</v>
+        <v>-87.81382385330315</v>
       </c>
       <c r="E11" t="n">
-        <v>2.558580134952391e-261</v>
+        <v>1.036494784813395e-255</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04547050198677859</v>
+        <v>-0.045053261100707</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04312665389429819</v>
+        <v>-0.04273556303196306</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05482546218303792</v>
+        <v>0.0557902710722188</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0382895251006394</v>
+        <v>-0.03751015274646345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005965268347801323</v>
+        <v>0.0005899395044803658</v>
       </c>
       <c r="D12" t="n">
-        <v>-73.73003104183842</v>
+        <v>-74.17878638194085</v>
       </c>
       <c r="E12" t="n">
-        <v>2.045521105960129e-206</v>
+        <v>3.483410160844749e-144</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03945870311004777</v>
+        <v>-0.03866642004033687</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03712034709123102</v>
+        <v>-0.03635388545259003</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06083451502293691</v>
+        <v>0.06217453039209038</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03667023456129203</v>
+        <v>-0.03573869645783865</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005950305101288869</v>
+        <v>0.0005880367402456139</v>
       </c>
       <c r="D13" t="n">
-        <v>-69.26452122847117</v>
+        <v>-69.32843511421841</v>
       </c>
       <c r="E13" t="n">
-        <v>2.047807876872883e-172</v>
+        <v>7.257341814117967e-137</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03783647988304711</v>
+        <v>-0.03689123448669752</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03550398923953695</v>
+        <v>-0.03458615842897978</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06245380556228428</v>
+        <v>0.06394598668071519</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03046362672923095</v>
+        <v>-0.02972768921468627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005919712418413596</v>
+        <v>0.0005826423703759706</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.50374299386527</v>
+        <v>-55.16547411792965</v>
       </c>
       <c r="E14" t="n">
-        <v>4.992734507483147e-38</v>
+        <v>6.393699878920953e-19</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03162387580609818</v>
+        <v>-0.0308696542090737</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02930337765236372</v>
+        <v>-0.02858572422029886</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06866041339434537</v>
+        <v>0.06995699392386756</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02764508677365244</v>
+        <v>-0.02702404528932642</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005762300664488778</v>
+        <v>0.0005675407557136577</v>
       </c>
       <c r="D15" t="n">
-        <v>-52.69839258492829</v>
+        <v>-52.72121400678041</v>
       </c>
       <c r="E15" t="n">
-        <v>1.25033539213733e-27</v>
+        <v>1.702901515324506e-24</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02877448362386029</v>
+        <v>-0.02813641156970503</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02651568992344459</v>
+        <v>-0.02591167900894781</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07147895334992388</v>
+        <v>0.07266063784922741</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02265940967752368</v>
+        <v>-0.02194541094949006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005616018022999292</v>
+        <v>0.000555584654301562</v>
       </c>
       <c r="D16" t="n">
-        <v>-44.21827596319378</v>
+        <v>-44.08826137749652</v>
       </c>
       <c r="E16" t="n">
-        <v>2.074978406278525e-07</v>
+        <v>9.325812489143913e-11</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02376013567352311</v>
+        <v>-0.0230343438343969</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02155868368152426</v>
+        <v>-0.02085647806458323</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07646463044605263</v>
+        <v>0.07773927218906376</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01835416086881763</v>
+        <v>-0.01793485054116308</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005650675835742472</v>
+        <v>0.0005571280578384603</v>
       </c>
       <c r="D17" t="n">
-        <v>-38.47043005310683</v>
+        <v>-38.63807813580166</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04287914853338819</v>
+        <v>0.02708521347523245</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01946167965049072</v>
+        <v>-0.01902680833229901</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01724664208714455</v>
+        <v>-0.01684289275002715</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08076987925475868</v>
+        <v>0.08174983259739074</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01853491288746079</v>
+        <v>-0.01778095317615366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005715171371309402</v>
+        <v>0.0005620128814778104</v>
       </c>
       <c r="D18" t="n">
-        <v>-37.51008626564604</v>
+        <v>-37.60488240504431</v>
       </c>
       <c r="E18" t="n">
-        <v>2.846794667548497e-14</v>
+        <v>1.215044213874351e-09</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01965507259681564</v>
+        <v>-0.01888248503596713</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01741475317810594</v>
+        <v>-0.0166794213163402</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08058912723611553</v>
+        <v>0.08190372996240017</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01617550511239547</v>
+        <v>-0.0157256558326781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006019181169608974</v>
+        <v>0.0005895519302993041</v>
       </c>
       <c r="D19" t="n">
-        <v>-32.42528235001339</v>
+        <v>-32.59994516835076</v>
       </c>
       <c r="E19" t="n">
-        <v>4.872812294569726e-10</v>
+        <v>6.258232305526772e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01735525066932838</v>
+        <v>-0.01688116425761806</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01499575955546255</v>
+        <v>-0.01457014740773813</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08294853501118085</v>
+        <v>0.08395902730587573</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01234987996562419</v>
+        <v>-0.0121061161491199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006130558544811643</v>
+        <v>0.0006021526079677466</v>
       </c>
       <c r="D20" t="n">
-        <v>-25.94470497262839</v>
+        <v>-26.23097070135893</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05275932284806881</v>
+        <v>0.02395354620243273</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01355145546544801</v>
+        <v>-0.01328632186640796</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01114830446580037</v>
+        <v>-0.01092591043183183</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08677416015795213</v>
+        <v>0.08757856698943393</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01174631605031217</v>
+        <v>-0.01186298748792805</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006213063200913889</v>
+        <v>0.0006111345609324638</v>
       </c>
       <c r="D21" t="n">
-        <v>-21.25124396978418</v>
+        <v>-21.8215123270592</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01954117352813525</v>
+        <v>0.01303203945730836</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01296406212643655</v>
+        <v>-0.01306079745350008</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0105285699741878</v>
+        <v>-0.01066517752235601</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08737772407326413</v>
+        <v>0.08782169565062578</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009784054758511131</v>
+        <v>-0.009810315084120461</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005915846990609998</v>
+        <v>0.0005823939560805281</v>
       </c>
       <c r="D22" t="n">
-        <v>-17.26145967619875</v>
+        <v>-17.76075430685935</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03498361640396983</v>
+        <v>0.0001153596299967203</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0109435465971688</v>
+        <v>-0.01095179355597408</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008624562919853465</v>
+        <v>-0.008668836612266851</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08933998536506518</v>
+        <v>0.08987436805443337</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006674684167149318</v>
+        <v>-0.006868158022241105</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005895384108173295</v>
+        <v>0.0005812971708816129</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.71002665266026</v>
+        <v>-13.30856728498739</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01613324950104657</v>
+        <v>0.06988006118507073</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007830165407939172</v>
+        <v>-0.008007486888822945</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005519202926359465</v>
+        <v>-0.005728829155659264</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09244935595642699</v>
+        <v>0.09281652511631272</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003862601735944289</v>
+        <v>-0.004111567254666021</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000578434674261406</v>
+        <v>0.0005704621942684972</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.55886471062492</v>
+        <v>-7.957622852227628</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0513026462280677</v>
+        <v>0.003518763143247714</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004996319809467696</v>
+        <v>-0.005229659711489649</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00272888366242088</v>
+        <v>-0.002993474797842394</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09526143838763203</v>
+        <v>0.09557311588388781</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002986180309636185</v>
+        <v>-0.003255016175380278</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005482076431902245</v>
+        <v>0.000539999469169073</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.909494540869561</v>
+        <v>-7.242450929825258</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05400323717021923</v>
+        <v>0.06537792521394663</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004060654014139587</v>
+        <v>-0.004313402295744398</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001911706605132783</v>
+        <v>-0.002196630055016158</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09613785981394013</v>
+        <v>0.09642966696317355</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02834203878765998</v>
+        <v>0.02267469812668086</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0008328571950808638</v>
+        <v>0.001145778712368315</v>
       </c>
       <c r="D26" t="n">
-        <v>23.98614778046045</v>
+        <v>19.74404972080569</v>
       </c>
       <c r="E26" t="n">
-        <v>5.981163700908449e-05</v>
+        <v>0.03061997934911111</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02670965929688141</v>
+        <v>0.02042900204843817</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02997441827843855</v>
+        <v>0.02492039420492357</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1274660789112363</v>
+        <v>0.1223593812652347</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year3final.xlsx
+++ b/hourly datasets/cap_gen_year3final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,613 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09968468313855383</v>
+        <v>0.1529335051901629</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002266672849087649</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006678212274062485</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.358516180855808</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08787505996454467</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0009577590058514109</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.003575586692323887</v>
-      </c>
+        <v>0.05844677929634488</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1019513559876415</v>
+        <v>0.2113802844865078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005918083615986167</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001069067416773459</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.552441161082395</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02322339407288468</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003822739010936688</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008013428221035644</v>
-      </c>
+        <v>0.05079059285245841</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.10560276675454</v>
+        <v>0.2037240980426213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01575680496038385</v>
+        <v>0.03156258996273307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001785486786726698</v>
+        <v>0.003388563407082635</v>
       </c>
       <c r="D5" t="n">
-        <v>7.199359717823454</v>
+        <v>6.450288168415412</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1445074481953045</v>
+        <v>0.05801784883862658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01225729824558578</v>
+        <v>0.02490688113544096</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01925631167518192</v>
+        <v>0.03821829879002497</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1154414880989377</v>
+        <v>0.1844960951528959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01050600373230559</v>
+        <v>0.01670645569515535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005847406623343961</v>
+        <v>0.002365302680552661</v>
       </c>
       <c r="D6" t="n">
-        <v>2.457624316537419</v>
+        <v>2.438365911774797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1045879121229161</v>
+        <v>0.01929290998493546</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0009547649868844703</v>
+        <v>0.012065022712668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02196677245149567</v>
+        <v>0.02134788867764268</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1101906868708594</v>
+        <v>0.1696399608853182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01083818673145435</v>
+        <v>0.009166681257409347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003336628858298767</v>
+        <v>0.001436762327623955</v>
       </c>
       <c r="D7" t="n">
-        <v>2.674774816350013</v>
+        <v>1.228256583144623</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01015481683008175</v>
+        <v>0.008220363295047287</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004298492849534943</v>
+        <v>0.006349557126039311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01737788061337375</v>
+        <v>0.01198380538877927</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1105228698700082</v>
+        <v>0.1621001864475722</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002636962360704823</v>
+        <v>0.005382153514123551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00265519647915954</v>
+        <v>0.001150285303666053</v>
       </c>
       <c r="D8" t="n">
-        <v>3.200751179696749</v>
+        <v>1.041667853073964</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01894537803163459</v>
+        <v>0.006337637758157669</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002567147116549612</v>
+        <v>0.003125996908329892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007841071837959257</v>
+        <v>0.007638310119917194</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1023216454992587</v>
+        <v>0.1583156587042864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05745190914466825</v>
+        <v>0.004888944223639221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006627194371890664</v>
+        <v>0.0008767389461023839</v>
       </c>
       <c r="D9" t="n">
-        <v>4.499059386672884</v>
+        <v>1.106196164396388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04777532613162395</v>
+        <v>0.004251204510160053</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04446278184539889</v>
+        <v>0.003169749373808511</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07044103644393759</v>
+        <v>0.006608139073469774</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1571365922832221</v>
+        <v>0.1578224494138021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09968468313855383</v>
+        <v>0.005845875302815621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005460768787854288</v>
+        <v>0.001350252074460247</v>
       </c>
       <c r="D10" t="n">
-        <v>-222.0819873472074</v>
+        <v>1.113696779169629</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.006678661065099205</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1007549808289541</v>
+        <v>0.00319785553191461</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09861438544815361</v>
+        <v>0.0084938950737166</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1587793804929785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04389441206633503</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005912567265510271</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-87.81382385330315</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.036494784813395e-255</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.045053261100707</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04273556303196306</v>
-      </c>
+        <v>0.02750522086136981</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.0557902710722188</v>
+        <v>0.1804387260515327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03751015274646345</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005899395044803658</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-74.17878638194085</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.483410160844749e-144</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03866642004033687</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03635388545259003</v>
-      </c>
+        <v>0.0420433540220342</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06217453039209038</v>
+        <v>0.194976859212197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03573869645783865</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005880367402456139</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-69.32843511421841</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.257341814117967e-137</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03689123448669752</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03458615842897978</v>
-      </c>
+        <v>0.05250441688540187</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06394598668071519</v>
+        <v>0.2054379220755647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02972768921468627</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005826423703759706</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-55.16547411792965</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.393699878920953e-19</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.0308696542090737</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02858572422029886</v>
-      </c>
+        <v>0.0592328180396173</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.06995699392386756</v>
+        <v>0.2121663232297802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02702404528932642</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005675407557136577</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-52.72121400678041</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.702901515324506e-24</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02813641156970503</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02591167900894781</v>
-      </c>
+        <v>0.06188737995820114</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07266063784922741</v>
+        <v>0.214820885148364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02194541094949006</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.000555584654301562</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-44.08826137749652</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.325812489143913e-11</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.0230343438343969</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02085647806458323</v>
-      </c>
+        <v>0.06591786006305334</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07773927218906376</v>
+        <v>0.2188513652532162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01793485054116308</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005571280578384603</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-38.63807813580166</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.02708521347523245</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01902680833229901</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01684289275002715</v>
-      </c>
+        <v>0.06927563307588103</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08174983259739074</v>
+        <v>0.2222091382660439</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01778095317615366</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005620128814778104</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-37.60488240504431</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.215044213874351e-09</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01888248503596713</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.0166794213163402</v>
-      </c>
+        <v>-0.1529335051901629</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08190372996240017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0157256558326781</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005895519302993041</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-32.59994516835076</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.258232305526772e-13</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01688116425761806</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01457014740773813</v>
-      </c>
+        <v>0.07324156246263684</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08395902730587573</v>
+        <v>0.2261750676527997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0121061161491199</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0006021526079677466</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-26.23097070135893</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.02395354620243273</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01328632186640796</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01092591043183183</v>
-      </c>
+        <v>0.07450851246862188</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08757856698943393</v>
+        <v>0.2274420176587847</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01186298748792805</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0006111345609324638</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-21.8215123270592</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01303203945730836</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01306079745350008</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.01066517752235601</v>
-      </c>
+        <v>0.07754397241973936</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.08782169565062578</v>
+        <v>0.2304774776099022</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009810315084120461</v>
+        <v>0.07885829901891772</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005823939560805281</v>
+        <v>0.009246228211255614</v>
       </c>
       <c r="D22" t="n">
-        <v>-17.76075430685935</v>
+        <v>14.97428470332188</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001153596299967203</v>
+        <v>0.0556851914252174</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01095179355597408</v>
+        <v>0.06065681015401691</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008668836612266851</v>
+        <v>0.09705978788381828</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08987436805443337</v>
+        <v>0.2317918042090806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006868158022241105</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005812971708816129</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-13.30856728498739</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.06988006118507073</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.008007486888822945</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.005728829155659264</v>
-      </c>
+        <v>0.07823737619932727</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09281652511631272</v>
+        <v>0.2311708813894901</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004111567254666021</v>
+        <v>0.0754755772588632</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005704621942684972</v>
+        <v>0.009236966730278535</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.957622852227628</v>
+        <v>12.57534412067213</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003518763143247714</v>
+        <v>0.05948369287713868</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005229659711489649</v>
+        <v>0.05729883811378021</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002993474797842394</v>
+        <v>0.09365231640394604</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09557311588388781</v>
+        <v>0.2284090824490261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003255016175380278</v>
+        <v>0.07111041855613294</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000539999469169073</v>
+        <v>0.009416827715308438</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.242450929825258</v>
+        <v>449430298059.3926</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06537792521394663</v>
+        <v>0.07607277472983223</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004313402295744398</v>
+        <v>0.05256649828491083</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.002196630055016158</v>
+        <v>0.08965433882735489</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09642966696317355</v>
+        <v>0.2240439237462958</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.07236866212473142</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008645102417221147</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-618520609651.8655</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06256771239811643</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05535097373584918</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.08938635051361356</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2253021673148943</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.06857693001724476</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2215104352074076</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06582081917634527</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007951947808472038</v>
+      </c>
+      <c r="D28" t="n">
+        <v>673765971870.2465</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.09378687294757784</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05017469282541584</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08146694552727475</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2187543243665081</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.02267469812668086</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001145778712368315</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.74404972080569</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03061997934911111</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.02042900204843817</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.02492039420492357</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1223593812652347</v>
+      <c r="B29" t="n">
+        <v>0.006656093761213078</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0007859074272599178</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.152391536576458</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001398898671206001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.005114991167409172</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.008197196355016839</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1595895989513759</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year3final.xlsx
+++ b/hourly datasets/cap_gen_year3final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1529335051901629</v>
+        <v>0.1053200318617804</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05844677929634488</v>
+        <v>0.06502862335842799</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2113802844865078</v>
+        <v>0.1703486552202084</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05079059285245841</v>
+        <v>0.05777295219089382</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2037240980426213</v>
+        <v>0.1630929840526742</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03156258996273307</v>
+        <v>0.04003746439820822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003388563407082635</v>
+        <v>0.005433154263989929</v>
       </c>
       <c r="D5" t="n">
-        <v>6.450288168415412</v>
+        <v>6.903545396162682</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05801784883862658</v>
+        <v>0.07162190113110609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02490688113544096</v>
+        <v>0.02933344314718372</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03821829879002497</v>
+        <v>0.05074148564923312</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1844960951528959</v>
+        <v>0.1453574962599886</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +564,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01670645569515535</v>
+        <v>0.02668104829557686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002365302680552661</v>
+        <v>0.004452646875450709</v>
       </c>
       <c r="D6" t="n">
-        <v>2.438365911774797</v>
+        <v>2.87173876220049</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01929290998493546</v>
+        <v>0.03367168509957227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.012065022712668</v>
+        <v>0.01790843688379194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02134788867764268</v>
+        <v>0.0354536597073619</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1696399608853182</v>
+        <v>0.1320010801573573</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +592,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009166681257409347</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001436762327623955</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.228256583144623</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.008220363295047287</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.006349557126039311</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01198380538877927</v>
-      </c>
+        <v>0.01905425749260545</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1621001864475722</v>
+        <v>0.1243742893543858</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005382153514123551</v>
+        <v>0.01736560068711328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001150285303666053</v>
+        <v>0.004163947991993477</v>
       </c>
       <c r="D8" t="n">
-        <v>1.041667853073964</v>
+        <v>1.466885868502567</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006337637758157669</v>
+        <v>0.0172446340642596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003125996908329892</v>
+        <v>0.009142926149439599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007638310119917194</v>
+        <v>0.02558827522478653</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1583156587042864</v>
+        <v>0.1226856325488937</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004888944223639221</v>
+        <v>0.01732275822753888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008767389461023839</v>
+        <v>0.003113653236048236</v>
       </c>
       <c r="D9" t="n">
-        <v>1.106196164396388</v>
+        <v>1.610124797313698</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004251204510160053</v>
+        <v>0.0159669773847593</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003169749373808511</v>
+        <v>0.01120881527836379</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006608139073469774</v>
+        <v>0.02343670117671362</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1578224494138021</v>
+        <v>0.1226427900893193</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005845875302815621</v>
+        <v>0.0162799505771167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001350252074460247</v>
+        <v>0.003428943804904028</v>
       </c>
       <c r="D10" t="n">
-        <v>1.113696779169629</v>
+        <v>1.562044403543934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006678661065099205</v>
+        <v>0.01730849734998471</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00319785553191461</v>
+        <v>0.009556342929723413</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0084938950737166</v>
+        <v>0.02300355822450985</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1587793804929785</v>
+        <v>0.1215999824388971</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02750522086136981</v>
+        <v>0.02862222822824241</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1804387260515327</v>
+        <v>0.1339422600900228</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0420433540220342</v>
+        <v>0.04430108711942315</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.194976859212197</v>
+        <v>0.1496211189812035</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05250441688540187</v>
+        <v>0.05520838535795865</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2054379220755647</v>
+        <v>0.160528417219739</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +748,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0592328180396173</v>
+        <v>0.06313946483995493</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -766,7 +756,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2121663232297802</v>
+        <v>0.1684594967017353</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06188737995820114</v>
+        <v>0.06534465239163116</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +774,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.214820885148364</v>
+        <v>0.1706646842534116</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +784,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06591786006305334</v>
+        <v>0.06948924553581119</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -802,7 +792,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2188513652532162</v>
+        <v>0.1748092773975916</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06927563307588103</v>
+        <v>0.07183312015261908</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -820,7 +810,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2222091382660439</v>
+        <v>0.1771531520143995</v>
       </c>
     </row>
     <row r="18">
@@ -830,7 +820,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1529335051901629</v>
+        <v>-0.1053200318617804</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -848,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07324156246263684</v>
+        <v>0.07568799403071995</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -856,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2261750676527997</v>
+        <v>0.1810080258925003</v>
       </c>
     </row>
     <row r="20">
@@ -866,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07450851246862188</v>
+        <v>0.07696599933625284</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -874,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2274420176587847</v>
+        <v>0.1822860311980332</v>
       </c>
     </row>
     <row r="21">
@@ -884,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07754397241973936</v>
+        <v>0.07958835759029037</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -892,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2304774776099022</v>
+        <v>0.1849083894520708</v>
       </c>
     </row>
     <row r="22">
@@ -902,25 +892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07885829901891772</v>
+        <v>0.08066186028953697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009246228211255614</v>
+        <v>0.009749602774917389</v>
       </c>
       <c r="D22" t="n">
-        <v>14.97428470332188</v>
+        <v>14.9528240895545</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0556851914252174</v>
+        <v>0.05442039328382266</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06065681015401691</v>
+        <v>0.06149311110204266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09705978788381828</v>
+        <v>0.0998306094770315</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2317918042090806</v>
+        <v>0.1859818921513174</v>
       </c>
     </row>
     <row r="23">
@@ -930,7 +920,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07823737619932727</v>
+        <v>0.08147063306007334</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -938,7 +928,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2311708813894901</v>
+        <v>0.1867906649218537</v>
       </c>
     </row>
     <row r="24">
@@ -948,25 +938,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0754755772588632</v>
+        <v>0.07791512637333038</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009236966730278535</v>
+        <v>0.009884813500305314</v>
       </c>
       <c r="D24" t="n">
-        <v>12.57534412067213</v>
+        <v>12.73343963955979</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05948369287713868</v>
+        <v>0.05946162548731106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05729883811378021</v>
+        <v>0.05848277880592048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09365231640394604</v>
+        <v>0.09734747394074011</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2284090824490261</v>
+        <v>0.1832351582351108</v>
       </c>
     </row>
     <row r="25">
@@ -976,25 +966,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07111041855613294</v>
+        <v>0.07538410366498602</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009416827715308438</v>
+        <v>0.01044901290117689</v>
       </c>
       <c r="D25" t="n">
-        <v>449430298059.3926</v>
+        <v>10.92792185528193</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07607277472983223</v>
+        <v>0.08118253572269221</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05256649828491083</v>
+        <v>0.054797339215146</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08965433882735489</v>
+        <v>0.09597086811482593</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2240439237462958</v>
+        <v>0.1807041355267664</v>
       </c>
     </row>
     <row r="26">
@@ -1004,25 +994,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07236866212473142</v>
+        <v>0.07672912400592764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008645102417221147</v>
+        <v>0.0095112734571934</v>
       </c>
       <c r="D26" t="n">
-        <v>-618520609651.8655</v>
+        <v>-615458881264.1466</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06256771239811643</v>
+        <v>0.06873298698064179</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05535097373584918</v>
+        <v>0.05802678591276553</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08938635051361356</v>
+        <v>0.09543146209908965</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2253021673148943</v>
+        <v>0.182049155867708</v>
       </c>
     </row>
     <row r="27">
@@ -1032,15 +1022,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06857693001724476</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>0.07461329212130874</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.009471946968351869</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.08078913534554</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07725968827376228</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05597423592445557</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09325234831816163</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2215104352074076</v>
+        <v>0.1799333239830891</v>
       </c>
     </row>
     <row r="28">
@@ -1050,25 +1050,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06582081917634527</v>
+        <v>0.0716448291081884</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007951947808472038</v>
+        <v>0.00929386048126217</v>
       </c>
       <c r="D28" t="n">
-        <v>673765971870.2465</v>
+        <v>9.783011301333788</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09378687294757784</v>
+        <v>0.1032664667766986</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05017469282541584</v>
+        <v>0.05334753270758397</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08146694552727475</v>
+        <v>0.08994212550879278</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2187543243665081</v>
+        <v>0.1769648609699688</v>
       </c>
     </row>
     <row r="29">
@@ -1078,25 +1078,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.006656093761213078</v>
+        <v>0.01837697764680676</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007859074272599178</v>
+        <v>0.003372328061941301</v>
       </c>
       <c r="D29" t="n">
-        <v>1.152391536576458</v>
+        <v>1.910192479225142</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001398898671206001</v>
+        <v>0.01332468734440235</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005114991167409172</v>
+        <v>0.01172144556022861</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008197196355016839</v>
+        <v>0.02503250973338464</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1595895989513759</v>
+        <v>0.1236970095085872</v>
       </c>
     </row>
   </sheetData>
